--- a/biology/Zoologie/Conus_marileeae/Conus_marileeae.xlsx
+++ b/biology/Zoologie/Conus_marileeae/Conus_marileeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus marileeae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes au large de Curaçao.
 </t>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus marileeae a été décrite pour la première fois en 2014 par le malacologiste américain Myroslaw Harasewych (d)[1] dans « The Nautilus »[2],[3].
-Synonymes
-Attenuiconus marileeae Harasewych, 2014 · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus marileeae a été décrite pour la première fois en 2014 par le malacologiste américain Myroslaw Harasewych (d) dans « The Nautilus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_marileeae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_marileeae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Attenuiconus marileeae Harasewych, 2014 · non accepté
 Conus (Attenuiconus) marileeae (Harasewych, 2014) · appellation alternative</t>
         </is>
       </c>
